--- a/璞盛奇/2.编码进度表—濮盛奇.xlsx
+++ b/璞盛奇/2.编码进度表—濮盛奇.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8087\Desktop\hgkj_01\璞盛奇\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B9CCB7-82E3-4E41-9537-09C49C6564D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE4050A-CEB3-498C-8BAA-5982B72EE531}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1740" windowWidth="18405" windowHeight="7875" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1740" windowWidth="18405" windowHeight="7875" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="濮盛奇" sheetId="1" r:id="rId1"/>
@@ -603,47 +603,47 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -1023,266 +1023,266 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="20.75" style="14" customWidth="1"/>
-    <col min="4" max="4" width="21" style="14" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="14" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="14" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="16.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="20.75" style="9" customWidth="1"/>
+    <col min="4" max="4" width="21" style="9" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="3"/>
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="4">
         <v>43641</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="4">
         <v>43641</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="4">
         <v>43641</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="12"/>
+      <c r="G3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="4">
         <v>43642</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="4">
         <v>43642</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="4">
         <v>43642</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="5">
         <v>0.2</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="12"/>
+      <c r="G4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="12"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="12"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="12"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="4">
         <v>43641</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="4">
         <v>43641</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="4">
         <v>43641</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="5">
         <v>1</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="12"/>
+      <c r="G8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="4">
         <v>43643</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="4">
         <v>43643</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="4">
         <v>43643</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="5">
         <v>0.2</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="12"/>
+      <c r="G9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="4">
         <v>43644</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="4">
         <v>43644</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="4">
         <v>43644</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="5">
         <v>0.4</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="12"/>
+      <c r="G10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="12"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="12"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1318,230 +1318,230 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="3"/>
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="4">
         <v>43642</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="4">
         <v>43642</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="4">
         <v>43642</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="12"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5">
         <v>0.2</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="12"/>
+      <c r="G4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="12"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="12"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="12"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="12"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5">
         <v>0.2</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="12"/>
+      <c r="G9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="12"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="12"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="12"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1575,224 +1575,224 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="3"/>
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="12"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="12"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="12"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="12"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="12"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="12"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10">
-        <v>0</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="12"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="12"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="12"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="12"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1809,7 +1809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1825,224 +1825,224 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="3"/>
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="12"/>
+      <c r="G3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="12"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="12"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="12"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="12"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="12"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10">
-        <v>0</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="12"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="12"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="12"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="12"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2059,8 +2059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2076,224 +2076,224 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="3"/>
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="12"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="12"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="12"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="12"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="12"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="12"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10">
-        <v>0</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="12"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="12"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="12"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="12"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2327,224 +2327,224 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="3"/>
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="12"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="12"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="12"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="12"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="12"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="12"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10">
-        <v>0</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="12"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="12"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="12"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="12"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/璞盛奇/2.编码进度表—濮盛奇.xlsx
+++ b/璞盛奇/2.编码进度表—濮盛奇.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8087\Desktop\hgkj_01\璞盛奇\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\hgkj_01\璞盛奇\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE4050A-CEB3-498C-8BAA-5982B72EE531}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1C7F06-9FE3-4A65-BBEF-F537B86E4A84}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1740" windowWidth="18405" windowHeight="7875" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3144" yWindow="1212" windowWidth="17688" windowHeight="10992" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="濮盛奇" sheetId="1" r:id="rId1"/>
@@ -1021,20 +1021,20 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="20.75" style="9" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" style="9" customWidth="1"/>
     <col min="4" max="4" width="21" style="9" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="9" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="91.33203125" style="9" customWidth="1"/>
     <col min="9" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1046,7 +1046,7 @@
       <c r="G1" s="11"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="3" t="s">
         <v>13</v>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
       <c r="B6" s="3" t="s">
         <v>14</v>
@@ -1150,7 +1150,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="3" t="s">
         <v>15</v>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
       <c r="B9" s="3" t="s">
         <v>18</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
       <c r="B10" s="3" t="s">
         <v>19</v>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13"/>
       <c r="B11" s="3" t="s">
         <v>20</v>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14"/>
       <c r="B12" s="3" t="s">
         <v>21</v>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1305,19 +1305,19 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="19.25" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="17.625" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="16.625" customWidth="1"/>
-    <col min="8" max="8" width="36.75" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="36.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1329,7 +1329,7 @@
       <c r="G1" s="11"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="3" t="s">
         <v>13</v>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
       <c r="B6" s="3" t="s">
         <v>14</v>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="3" t="s">
         <v>15</v>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
       <c r="B9" s="3" t="s">
         <v>18</v>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
       <c r="B10" s="3" t="s">
         <v>19</v>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="13"/>
       <c r="B11" s="3" t="s">
         <v>20</v>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="14"/>
       <c r="B12" s="3" t="s">
         <v>21</v>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1562,19 +1562,19 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="43.75" customWidth="1"/>
+    <col min="8" max="8" width="43.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1586,7 +1586,7 @@
       <c r="G1" s="11"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="3" t="s">
         <v>13</v>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
       <c r="B6" s="3" t="s">
         <v>14</v>
@@ -1678,7 +1678,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="3" t="s">
         <v>15</v>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
       <c r="B9" s="3" t="s">
         <v>18</v>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
       <c r="B10" s="3" t="s">
         <v>19</v>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="13"/>
       <c r="B11" s="3" t="s">
         <v>20</v>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="14"/>
       <c r="B12" s="3" t="s">
         <v>21</v>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1813,18 +1813,18 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="7" width="18.5" customWidth="1"/>
-    <col min="8" max="8" width="41.5" customWidth="1"/>
+    <col min="6" max="7" width="18.44140625" customWidth="1"/>
+    <col min="8" max="8" width="41.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1836,7 +1836,7 @@
       <c r="G1" s="11"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
@@ -1880,7 +1880,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="3" t="s">
         <v>13</v>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
       <c r="B6" s="3" t="s">
         <v>14</v>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="3" t="s">
         <v>15</v>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
       <c r="B9" s="3" t="s">
         <v>18</v>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
       <c r="B10" s="3" t="s">
         <v>19</v>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="13"/>
       <c r="B11" s="3" t="s">
         <v>20</v>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="14"/>
       <c r="B12" s="3" t="s">
         <v>21</v>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -2060,22 +2060,22 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="17.75" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
-    <col min="6" max="6" width="17.75" customWidth="1"/>
-    <col min="7" max="7" width="18.25" customWidth="1"/>
-    <col min="8" max="8" width="51.375" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" customWidth="1"/>
+    <col min="8" max="8" width="51.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2087,7 +2087,7 @@
       <c r="G1" s="11"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
@@ -2140,14 +2140,14 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="5">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="3" t="s">
         <v>13</v>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
       <c r="B6" s="3" t="s">
         <v>14</v>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="3" t="s">
         <v>15</v>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
@@ -2206,14 +2206,14 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="5">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
       <c r="B9" s="3" t="s">
         <v>18</v>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
       <c r="B10" s="3" t="s">
         <v>19</v>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="13"/>
       <c r="B11" s="3" t="s">
         <v>20</v>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="14"/>
       <c r="B12" s="3" t="s">
         <v>21</v>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -2314,19 +2314,19 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
-    <col min="4" max="4" width="23.125" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="23.5" customWidth="1"/>
-    <col min="8" max="8" width="55.5" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" customWidth="1"/>
+    <col min="8" max="8" width="55.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2338,7 +2338,7 @@
       <c r="G1" s="11"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
       <c r="B5" s="3" t="s">
         <v>13</v>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
       <c r="B6" s="3" t="s">
         <v>14</v>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="3" t="s">
         <v>15</v>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
       <c r="B9" s="3" t="s">
         <v>18</v>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
       <c r="B10" s="3" t="s">
         <v>19</v>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="13"/>
       <c r="B11" s="3" t="s">
         <v>20</v>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="14"/>
       <c r="B12" s="3" t="s">
         <v>21</v>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>

--- a/璞盛奇/2.编码进度表—濮盛奇.xlsx
+++ b/璞盛奇/2.编码进度表—濮盛奇.xlsx
@@ -101,10 +101,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -148,16 +148,96 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,16 +249,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,47 +280,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,19 +318,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
+      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -268,58 +345,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
+      <sz val="15"/>
       <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -331,33 +358,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
@@ -394,7 +394,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,61 +409,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,13 +589,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,55 +601,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,97 +613,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,6 +719,30 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -772,6 +772,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -783,6 +794,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,41 +821,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,8 +845,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thick">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -881,29 +877,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="thick">
+      <bottom style="medium">
         <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -951,205 +927,205 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="44" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1161,10 +1137,10 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="45" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="46" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="42" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1252,15 +1228,15 @@
     <cellStyle name="汇总" xfId="38" builtinId="25"/>
     <cellStyle name="40% - 着色 5" xfId="39"/>
     <cellStyle name="好" xfId="40" builtinId="26"/>
-    <cellStyle name="着色 5" xfId="41"/>
-    <cellStyle name="适中" xfId="42" builtinId="28"/>
+    <cellStyle name="适中" xfId="41" builtinId="28"/>
+    <cellStyle name="着色 5" xfId="42"/>
     <cellStyle name="标题 1 2" xfId="43"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="44" builtinId="46"/>
     <cellStyle name="强调文字颜色 1" xfId="45" builtinId="29"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="46" builtinId="30"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="输出 2" xfId="48"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="49" builtinId="34"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="48" builtinId="34"/>
+    <cellStyle name="输出 2" xfId="49"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="50" builtinId="35"/>
     <cellStyle name="强调文字颜色 3" xfId="51" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="52" builtinId="41"/>
@@ -1270,8 +1246,8 @@
     <cellStyle name="40% - 强调文字颜色 5" xfId="56" builtinId="47"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="适中 2" xfId="59"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="60" builtinId="51"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="59" builtinId="51"/>
+    <cellStyle name="适中 2" xfId="60"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
     <cellStyle name="标题 2 2" xfId="62"/>
     <cellStyle name="标题 3 2" xfId="63"/>
@@ -2168,7 +2144,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H4" sqref="A1:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2253,7 +2229,9 @@
       <c r="G4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="10"/>
+      <c r="H4" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" ht="15.6" spans="1:8">
       <c r="A5" s="5"/>
@@ -2301,7 +2279,9 @@
       <c r="G7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" ht="15.6" spans="1:8">
       <c r="A8" s="5" t="s">
@@ -2335,7 +2315,9 @@
       <c r="G9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="10"/>
+      <c r="H9" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" ht="15.6" spans="1:8">
       <c r="A10" s="5"/>
@@ -2351,7 +2333,9 @@
       <c r="G10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="10"/>
+      <c r="H10" s="10">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" ht="15.6" spans="1:8">
       <c r="A11" s="5"/>
@@ -2367,9 +2351,11 @@
       <c r="G11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" ht="15.6" spans="1:8">
+      <c r="H11" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" ht="15.6" spans="1:7">
       <c r="A12" s="11"/>
       <c r="B12" s="6" t="s">
         <v>21</v>
@@ -2383,7 +2369,6 @@
       <c r="G12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="10"/>
     </row>
     <row r="13" ht="15.6" spans="1:8">
       <c r="A13" s="5" t="s">
@@ -2401,7 +2386,9 @@
       <c r="G13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="10"/>
+      <c r="H13" s="10">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/璞盛奇/2.编码进度表—濮盛奇.xlsx
+++ b/璞盛奇/2.编码进度表—濮盛奇.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="26">
   <si>
     <t>进度控制表-旅游网的设计与实现</t>
   </si>
@@ -95,16 +95,19 @@
   <si>
     <t>已完成</t>
   </si>
+  <si>
+    <t>完成</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -141,7 +144,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,10 +157,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -168,7 +173,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,17 +255,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -206,30 +292,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,22 +306,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -265,67 +314,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -337,34 +355,31 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color indexed="54"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="54"/>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -377,18 +392,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -409,19 +412,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,61 +586,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,109 +610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,25 +622,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,6 +722,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="23"/>
       </left>
       <right style="thin">
@@ -736,23 +754,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,17 +795,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,44 +834,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="63"/>
       </left>
       <right style="double">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="63"/>
       </right>
       <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="63"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -877,24 +866,29 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -904,6 +898,15 @@
       <top/>
       <bottom style="double">
         <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -927,220 +930,220 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="42" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1602,7 +1605,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -2144,7 +2147,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="A1:H13"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2204,14 +2207,20 @@
       <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="C3" s="7">
+        <v>43641</v>
+      </c>
+      <c r="D3" s="7">
+        <v>43642</v>
+      </c>
+      <c r="E3" s="7">
+        <v>43642</v>
+      </c>
       <c r="F3" s="8">
         <v>1</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H3" s="10"/>
     </row>
@@ -2224,14 +2233,12 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="10">
-        <v>2</v>
-      </c>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" ht="15.6" spans="1:8">
       <c r="A5" s="5"/>
@@ -2279,9 +2286,7 @@
       <c r="G7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="10">
-        <v>2</v>
-      </c>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" ht="15.6" spans="1:8">
       <c r="A8" s="5" t="s">
@@ -2315,9 +2320,7 @@
       <c r="G9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="10">
-        <v>2</v>
-      </c>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" ht="15.6" spans="1:8">
       <c r="A10" s="5"/>
@@ -2333,9 +2336,7 @@
       <c r="G10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="10">
-        <v>22</v>
-      </c>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" ht="15.6" spans="1:8">
       <c r="A11" s="5"/>
@@ -2351,9 +2352,7 @@
       <c r="G11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="10">
-        <v>2</v>
-      </c>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" ht="15.6" spans="1:7">
       <c r="A12" s="11"/>
@@ -2386,9 +2385,7 @@
       <c r="G13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="10">
-        <v>2</v>
-      </c>
+      <c r="H13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/璞盛奇/2.编码进度表—濮盛奇.xlsx
+++ b/璞盛奇/2.编码进度表—濮盛奇.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9492" activeTab="2"/>
+    <workbookView windowWidth="22103" windowHeight="9947"/>
   </bookViews>
   <sheets>
     <sheet name="濮盛奇" sheetId="1" r:id="rId1"/>
@@ -54,10 +54,13 @@
     <t>注册、登录页面</t>
   </si>
   <si>
-    <t>未完成</t>
+    <t>完成</t>
   </si>
   <si>
     <t>主页面</t>
+  </si>
+  <si>
+    <t>未完成</t>
   </si>
   <si>
     <t>线路详情</t>
@@ -95,19 +98,16 @@
   <si>
     <t>已完成</t>
   </si>
-  <si>
-    <t>完成</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -143,8 +143,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,7 +162,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,6 +174,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="52"/>
@@ -173,46 +241,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,48 +262,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -276,42 +314,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color indexed="54"/>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
+      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="13"/>
+      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -321,57 +355,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="60"/>
       <name val="宋体"/>
@@ -380,6 +363,11 @@
     <font>
       <sz val="11"/>
       <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -392,6 +380,18 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -412,133 +412,205 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,91 +622,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,6 +721,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -732,6 +743,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,15 +771,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -775,15 +786,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -795,6 +797,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,60 +848,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -893,11 +872,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
       <bottom style="double">
-        <color indexed="52"/>
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -905,8 +905,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -930,220 +930,220 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="42" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1604,8 +1604,8 @@
   <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -1691,9 +1691,7 @@
       <c r="C4" s="7">
         <v>43642</v>
       </c>
-      <c r="D4" s="7">
-        <v>43642</v>
-      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="7">
         <v>43642</v>
       </c>
@@ -1701,14 +1699,14 @@
         <v>0.2</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="10"/>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:8">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1717,14 +1715,14 @@
         <v>0</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:8">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1733,14 +1731,14 @@
         <v>0</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:8">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1749,16 +1747,16 @@
         <v>0</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>43641</v>
@@ -1780,14 +1778,12 @@
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>43643</v>
       </c>
-      <c r="D9" s="7">
-        <v>43643</v>
-      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7">
         <v>43643</v>
       </c>
@@ -1795,70 +1791,76 @@
         <v>0.2</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H9" s="10"/>
     </row>
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>43644</v>
       </c>
-      <c r="D10" s="7">
-        <v>43644</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7">
-        <v>43644</v>
+        <v>43643</v>
       </c>
       <c r="F10" s="8">
         <v>0.4</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H10" s="10"/>
     </row>
     <row r="11" ht="18.75" customHeight="1" spans="1:8">
       <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="C11" s="7">
+        <v>43644</v>
+      </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="E11" s="7">
+        <v>43643</v>
+      </c>
       <c r="F11" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H11" s="10"/>
     </row>
     <row r="12" ht="18.75" customHeight="1" spans="1:8">
       <c r="A12" s="11"/>
       <c r="B12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="C12" s="7">
+        <v>43644</v>
+      </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="E12" s="7">
+        <v>43643</v>
+      </c>
       <c r="F12" s="8">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H12" s="10"/>
     </row>
     <row r="13" ht="21" customHeight="1" spans="1:8">
       <c r="A13" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1867,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H13" s="10"/>
     </row>
@@ -1962,7 +1964,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="10"/>
     </row>
@@ -1978,14 +1980,14 @@
         <v>0.2</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="10"/>
     </row>
     <row r="5" ht="15.6" spans="1:8">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1994,14 +1996,14 @@
         <v>0</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" ht="15.6" spans="1:8">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -2010,14 +2012,14 @@
         <v>0</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" ht="15.6" spans="1:8">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -2026,16 +2028,16 @@
         <v>0</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" ht="15.6" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -2044,14 +2046,14 @@
         <v>0</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H8" s="10"/>
     </row>
     <row r="9" ht="15.6" spans="1:8">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -2060,14 +2062,14 @@
         <v>0.2</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H9" s="10"/>
     </row>
     <row r="10" ht="15.6" spans="1:8">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -2076,14 +2078,14 @@
         <v>0</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H10" s="10"/>
     </row>
     <row r="11" ht="15.6" spans="1:8">
       <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -2092,14 +2094,14 @@
         <v>0</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H11" s="10"/>
     </row>
     <row r="12" ht="15.6" spans="1:8">
       <c r="A12" s="11"/>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2108,16 +2110,16 @@
         <v>0</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H12" s="10"/>
     </row>
     <row r="13" ht="15.6" spans="1:8">
       <c r="A13" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2126,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H13" s="10"/>
     </row>
@@ -2146,7 +2148,7 @@
   <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -2220,7 +2222,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H3" s="10"/>
     </row>
@@ -2236,14 +2238,14 @@
         <v>0.5</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="10"/>
     </row>
     <row r="5" ht="15.6" spans="1:8">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -2252,14 +2254,14 @@
         <v>0</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" ht="15.6" spans="1:8">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -2268,14 +2270,14 @@
         <v>0</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" ht="15.6" spans="1:8">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" ht="15.6" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -2302,14 +2304,14 @@
         <v>0</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H8" s="10"/>
     </row>
     <row r="9" ht="15.6" spans="1:8">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -2318,14 +2320,14 @@
         <v>0</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H9" s="10"/>
     </row>
     <row r="10" ht="15.6" spans="1:8">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -2334,14 +2336,14 @@
         <v>0</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H10" s="10"/>
     </row>
     <row r="11" ht="15.6" spans="1:8">
       <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -2350,14 +2352,14 @@
         <v>0</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H11" s="10"/>
     </row>
     <row r="12" ht="15.6" spans="1:7">
       <c r="A12" s="11"/>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2366,15 +2368,15 @@
         <v>0</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" ht="15.6" spans="1:8">
       <c r="A13" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2383,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H13" s="10"/>
     </row>
@@ -2470,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H3" s="10"/>
     </row>
@@ -2486,14 +2488,14 @@
         <v>0</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="10"/>
     </row>
     <row r="5" ht="15.6" spans="1:8">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -2502,14 +2504,14 @@
         <v>0</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" ht="15.6" spans="1:8">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -2518,14 +2520,14 @@
         <v>0</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" ht="15.6" spans="1:8">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -2534,16 +2536,16 @@
         <v>0</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" ht="15.6" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -2552,14 +2554,14 @@
         <v>0</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H8" s="10"/>
     </row>
     <row r="9" ht="15.6" spans="1:8">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -2568,14 +2570,14 @@
         <v>0</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H9" s="10"/>
     </row>
     <row r="10" ht="15.6" spans="1:8">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -2584,14 +2586,14 @@
         <v>0</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H10" s="10"/>
     </row>
     <row r="11" ht="15.6" spans="1:8">
       <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -2600,14 +2602,14 @@
         <v>0</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H11" s="10"/>
     </row>
     <row r="12" ht="15.6" spans="1:8">
       <c r="A12" s="11"/>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2616,16 +2618,16 @@
         <v>0</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H12" s="10"/>
     </row>
     <row r="13" ht="15.6" spans="1:8">
       <c r="A13" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2634,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H13" s="10"/>
     </row>
@@ -2722,7 +2724,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H3" s="10"/>
     </row>
@@ -2738,14 +2740,14 @@
         <v>0.3</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="10"/>
     </row>
     <row r="5" ht="15.6" spans="1:8">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -2754,14 +2756,14 @@
         <v>0</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" ht="15.6" spans="1:8">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -2770,14 +2772,14 @@
         <v>0</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" ht="15.6" spans="1:8">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -2786,16 +2788,16 @@
         <v>0</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" ht="15.6" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -2804,14 +2806,14 @@
         <v>0.8</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H8" s="10"/>
     </row>
     <row r="9" ht="15.6" spans="1:8">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -2820,14 +2822,14 @@
         <v>0</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H9" s="10"/>
     </row>
     <row r="10" ht="15.6" spans="1:8">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -2836,14 +2838,14 @@
         <v>0</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H10" s="10"/>
     </row>
     <row r="11" ht="15.6" spans="1:8">
       <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -2852,14 +2854,14 @@
         <v>0</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H11" s="10"/>
     </row>
     <row r="12" ht="15.6" spans="1:8">
       <c r="A12" s="11"/>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2868,16 +2870,16 @@
         <v>0</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H12" s="10"/>
     </row>
     <row r="13" ht="15.6" spans="1:8">
       <c r="A13" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2886,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H13" s="10"/>
     </row>
@@ -2974,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H3" s="10"/>
     </row>
@@ -2990,14 +2992,14 @@
         <v>0</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="10"/>
     </row>
     <row r="5" ht="15.6" spans="1:8">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -3006,14 +3008,14 @@
         <v>0</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" ht="15.6" spans="1:8">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -3022,14 +3024,14 @@
         <v>0</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" ht="15.6" spans="1:8">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -3038,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" ht="15.6" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -3056,14 +3058,14 @@
         <v>0</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H8" s="10"/>
     </row>
     <row r="9" ht="15.6" spans="1:8">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -3072,14 +3074,14 @@
         <v>0</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H9" s="10"/>
     </row>
     <row r="10" ht="15.6" spans="1:8">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -3088,14 +3090,14 @@
         <v>0</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H10" s="10"/>
     </row>
     <row r="11" ht="15.6" spans="1:8">
       <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -3104,14 +3106,14 @@
         <v>0</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H11" s="10"/>
     </row>
     <row r="12" ht="15.6" spans="1:8">
       <c r="A12" s="11"/>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -3120,16 +3122,16 @@
         <v>0</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H12" s="10"/>
     </row>
     <row r="13" ht="15.6" spans="1:8">
       <c r="A13" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -3138,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H13" s="10"/>
     </row>

--- a/璞盛奇/2.编码进度表—濮盛奇.xlsx
+++ b/璞盛奇/2.编码进度表—濮盛奇.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\hgkj_01\璞盛奇\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8087\Desktop\hgkj_01\璞盛奇\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786BBF2C-BC99-40B0-A005-C74EEA73C4F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720C842F-F4AB-456D-B67D-CBD82D92AD7E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="888" windowWidth="17688" windowHeight="10992" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1740" windowWidth="18405" windowHeight="7875" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="濮盛奇" sheetId="1" r:id="rId1"/>
@@ -606,47 +606,47 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -1024,268 +1024,268 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="21" style="14" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="14" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="14" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="16.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="20.75" style="9" customWidth="1"/>
+    <col min="4" max="4" width="21" style="9" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="91.375" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="4">
         <v>43641</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="4">
         <v>43641</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="4">
         <v>43641</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+      <c r="G3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="4">
         <v>43642</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="4">
         <v>43642</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="4">
         <v>43642</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="5">
         <v>0.2</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
+      <c r="G4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="4">
         <v>43641</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="4">
         <v>43641</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="4">
         <v>43641</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="5">
         <v>1</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="G8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="4">
         <v>43643</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="4">
         <v>43643</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="4">
         <v>43643</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="5">
         <v>0.2</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
+      <c r="G9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="4">
         <v>43644</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="4">
         <v>43644</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="4">
         <v>43644</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="5">
         <v>0.4</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+      <c r="G10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1308,243 +1308,243 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="8" width="36.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="8" max="8" width="36.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="4">
         <v>43642</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="4">
         <v>43642</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="4">
         <v>43642</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5">
         <v>0.2</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
+      <c r="G4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5">
         <v>0.2</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
+      <c r="G9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1565,242 +1565,242 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="43.77734375" customWidth="1"/>
+    <col min="8" max="8" width="43.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="4">
         <v>43641</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="4">
         <v>43642</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="4">
         <v>43642</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5">
         <v>0.5</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
+      <c r="G4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10">
-        <v>0</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1817,240 +1817,240 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="7" width="18.44140625" customWidth="1"/>
-    <col min="8" max="8" width="41.44140625" customWidth="1"/>
+    <col min="6" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+      <c r="G3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10">
-        <v>0</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2067,253 +2067,253 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" customWidth="1"/>
-    <col min="8" max="8" width="51.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="6" max="6" width="17.75" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="8" width="51.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="4">
         <v>43641</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="4">
         <v>43642</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="4">
         <v>43642</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+      <c r="G3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
         <v>43643</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="5">
         <v>0.3</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
+      <c r="G4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4">
         <v>43643</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="5">
         <v>0.8</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="G8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4">
         <v>43643</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="5">
         <v>0.2</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
+      <c r="G9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2334,237 +2334,237 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" customWidth="1"/>
-    <col min="8" max="8" width="55.44140625" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10">
-        <v>0</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/璞盛奇/2.编码进度表—濮盛奇.xlsx
+++ b/璞盛奇/2.编码进度表—濮盛奇.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20448" windowHeight="8484" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="9492" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="濮盛奇" sheetId="1" r:id="rId1"/>
@@ -104,10 +104,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -144,6 +144,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -166,6 +173,173 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="54"/>
@@ -174,163 +348,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
+      <sz val="15"/>
+      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -340,27 +361,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
@@ -397,7 +397,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,91 +412,205 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,145 +622,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,61 +725,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -824,11 +745,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,32 +790,24 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color indexed="63"/>
+        <color indexed="49"/>
       </top>
-      <bottom style="thin">
-        <color indexed="63"/>
+      <bottom style="double">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -896,7 +830,40 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="44"/>
       </bottom>
       <diagonal/>
@@ -907,6 +874,15 @@
       <top/>
       <bottom style="thick">
         <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,205 +930,205 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="44" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1164,10 +1140,10 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="45" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="46" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="42" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1255,15 +1231,15 @@
     <cellStyle name="汇总" xfId="38" builtinId="25"/>
     <cellStyle name="40% - 着色 5" xfId="39"/>
     <cellStyle name="好" xfId="40" builtinId="26"/>
-    <cellStyle name="着色 5" xfId="41"/>
-    <cellStyle name="适中" xfId="42" builtinId="28"/>
+    <cellStyle name="适中" xfId="41" builtinId="28"/>
+    <cellStyle name="着色 5" xfId="42"/>
     <cellStyle name="标题 1 2" xfId="43"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="44" builtinId="46"/>
     <cellStyle name="强调文字颜色 1" xfId="45" builtinId="29"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="46" builtinId="30"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="输出 2" xfId="48"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="49" builtinId="34"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="48" builtinId="34"/>
+    <cellStyle name="输出 2" xfId="49"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="50" builtinId="35"/>
     <cellStyle name="强调文字颜色 3" xfId="51" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="52" builtinId="41"/>
@@ -1273,8 +1249,8 @@
     <cellStyle name="40% - 强调文字颜色 5" xfId="56" builtinId="47"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="适中 2" xfId="59"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="60" builtinId="51"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="59" builtinId="51"/>
+    <cellStyle name="适中 2" xfId="60"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
     <cellStyle name="标题 2 2" xfId="62"/>
     <cellStyle name="标题 3 2" xfId="63"/>
@@ -2170,8 +2146,8 @@
   <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2301,11 +2277,17 @@
       <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="C7" s="7">
+        <v>43644</v>
+      </c>
+      <c r="D7" s="7">
+        <v>43645</v>
+      </c>
+      <c r="E7" s="7">
+        <v>43645</v>
+      </c>
       <c r="F7" s="8">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>11</v>
@@ -2319,14 +2301,20 @@
       <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="C8" s="7">
+        <v>43643</v>
+      </c>
+      <c r="D8" s="7">
+        <v>43643</v>
+      </c>
+      <c r="E8" s="7">
+        <v>43643</v>
+      </c>
       <c r="F8" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H8" s="10"/>
     </row>
@@ -2946,7 +2934,7 @@
   <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>

--- a/璞盛奇/2.编码进度表—濮盛奇.xlsx
+++ b/璞盛奇/2.编码进度表—濮盛奇.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9492" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9347" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="濮盛奇" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,6 +154,153 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,20 +320,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -195,123 +328,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -322,34 +349,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -412,25 +412,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,7 +556,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,175 +622,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,8 +724,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,73 +741,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,7 +764,101 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,33 +874,6 @@
       </top>
       <bottom style="thin">
         <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -936,190 +936,190 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1140,7 +1140,7 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="42" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1888,8 +1888,8 @@
   <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1971,11 +1971,15 @@
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7">
+        <v>43648</v>
+      </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="E4" s="7">
+        <v>43647</v>
+      </c>
       <c r="F4" s="8">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>11</v>
@@ -2037,11 +2041,17 @@
       <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="C8" s="7">
+        <v>43647</v>
+      </c>
+      <c r="D8" s="7">
+        <v>43647</v>
+      </c>
+      <c r="E8" s="7">
+        <v>43647</v>
+      </c>
       <c r="F8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>11</v>
@@ -2053,9 +2063,13 @@
       <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7">
+        <v>43648</v>
+      </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="E9" s="7">
+        <v>43647</v>
+      </c>
       <c r="F9" s="8">
         <v>0.2</v>
       </c>
@@ -2146,7 +2160,7 @@
   <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/璞盛奇/2.编码进度表—濮盛奇.xlsx
+++ b/璞盛奇/2.编码进度表—濮盛奇.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="濮盛奇" sheetId="1" r:id="rId1"/>
@@ -54,10 +54,13 @@
     <t>注册、登录页面</t>
   </si>
   <si>
-    <t>未完成</t>
+    <t>完成</t>
   </si>
   <si>
     <t>主页面</t>
+  </si>
+  <si>
+    <t>未完成</t>
   </si>
   <si>
     <t>线路详情</t>
@@ -95,18 +98,15 @@
   <si>
     <t>已完成</t>
   </si>
-  <si>
-    <t>完成</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
@@ -143,6 +143,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -151,24 +152,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -180,7 +174,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -188,7 +182,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,15 +212,88 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -224,29 +306,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -255,23 +314,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="54"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -285,47 +360,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="13"/>
+      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -336,63 +392,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -412,19 +412,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,43 +562,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,37 +586,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,49 +610,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,73 +634,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,15 +721,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -741,6 +732,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,7 +770,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,27 +790,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -813,28 +802,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
       <bottom style="double">
-        <color indexed="49"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -856,8 +825,36 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thick">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
         <color indexed="49"/>
       </bottom>
       <diagonal/>
@@ -874,6 +871,15 @@
       </top>
       <bottom style="thin">
         <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -905,23 +911,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+      <bottom style="thick">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -930,220 +930,220 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="41" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="42" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1604,8 +1604,8 @@
   <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -1701,14 +1701,14 @@
         <v>0.2</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="10"/>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:8">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1717,14 +1717,14 @@
         <v>0</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:8">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1733,14 +1733,14 @@
         <v>0</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:8">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1749,16 +1749,16 @@
         <v>0</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>43641</v>
@@ -1780,7 +1780,7 @@
     <row r="9" ht="18.75" customHeight="1" spans="1:8">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>43643</v>
@@ -1792,17 +1792,17 @@
         <v>43643</v>
       </c>
       <c r="F9" s="8">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H9" s="10"/>
     </row>
     <row r="10" ht="18.75" customHeight="1" spans="1:8">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>43644</v>
@@ -1814,7 +1814,7 @@
         <v>43644</v>
       </c>
       <c r="F10" s="8">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>11</v>
@@ -1824,13 +1824,19 @@
     <row r="11" ht="18.75" customHeight="1" spans="1:8">
       <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="C11" s="7">
+        <v>43646</v>
+      </c>
+      <c r="D11" s="7">
+        <v>43646</v>
+      </c>
+      <c r="E11" s="7">
+        <v>43646</v>
+      </c>
       <c r="F11" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>11</v>
@@ -1840,25 +1846,31 @@
     <row r="12" ht="18.75" customHeight="1" spans="1:8">
       <c r="A12" s="11"/>
       <c r="B12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="C12" s="7">
+        <v>43646</v>
+      </c>
+      <c r="D12" s="7">
+        <v>43646</v>
+      </c>
+      <c r="E12" s="7">
+        <v>43646</v>
+      </c>
       <c r="F12" s="8">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H12" s="10"/>
     </row>
     <row r="13" ht="21" customHeight="1" spans="1:8">
       <c r="A13" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1867,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H13" s="10"/>
     </row>
@@ -1888,7 +1900,7 @@
   <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1962,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="10"/>
     </row>
@@ -1982,14 +1994,14 @@
         <v>0.8</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="10"/>
     </row>
     <row r="5" ht="15.6" spans="1:8">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1998,14 +2010,14 @@
         <v>0</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" ht="15.6" spans="1:8">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -2014,14 +2026,14 @@
         <v>0</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" ht="15.6" spans="1:8">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -2030,16 +2042,16 @@
         <v>0</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" ht="15.6" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>43647</v>
@@ -2054,14 +2066,14 @@
         <v>1</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H8" s="10"/>
     </row>
     <row r="9" ht="15.6" spans="1:8">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>43648</v>
@@ -2074,14 +2086,14 @@
         <v>0.2</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H9" s="10"/>
     </row>
     <row r="10" ht="15.6" spans="1:8">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -2090,14 +2102,14 @@
         <v>0</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H10" s="10"/>
     </row>
     <row r="11" ht="15.6" spans="1:8">
       <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -2106,14 +2118,14 @@
         <v>0</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H11" s="10"/>
     </row>
     <row r="12" ht="15.6" spans="1:8">
       <c r="A12" s="11"/>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2122,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H12" s="10"/>
     </row>
     <row r="13" ht="15.6" spans="1:8">
       <c r="A13" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2140,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H13" s="10"/>
     </row>
@@ -2234,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H3" s="10"/>
     </row>
@@ -2250,14 +2262,14 @@
         <v>0.5</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="10"/>
     </row>
     <row r="5" ht="15.6" spans="1:8">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -2266,14 +2278,14 @@
         <v>0</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" ht="15.6" spans="1:8">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -2282,14 +2294,14 @@
         <v>0</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" ht="15.6" spans="1:8">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="7">
         <v>43644</v>
@@ -2304,16 +2316,16 @@
         <v>0.6</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" ht="15.6" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>43643</v>
@@ -2328,14 +2340,14 @@
         <v>1</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H8" s="10"/>
     </row>
     <row r="9" ht="15.6" spans="1:8">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -2344,14 +2356,14 @@
         <v>0</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H9" s="10"/>
     </row>
     <row r="10" ht="15.6" spans="1:8">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -2360,14 +2372,14 @@
         <v>0</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H10" s="10"/>
     </row>
     <row r="11" ht="15.6" spans="1:8">
       <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -2376,14 +2388,14 @@
         <v>0</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H11" s="10"/>
     </row>
     <row r="12" ht="15.6" spans="1:7">
       <c r="A12" s="11"/>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2392,15 +2404,15 @@
         <v>0</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" ht="15.6" spans="1:8">
       <c r="A13" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2409,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H13" s="10"/>
     </row>
@@ -2496,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H3" s="10"/>
     </row>
@@ -2512,14 +2524,14 @@
         <v>0.6</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="10"/>
     </row>
     <row r="5" ht="15.6" spans="1:8">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -2528,14 +2540,14 @@
         <v>0</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" ht="15.6" spans="1:8">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -2544,14 +2556,14 @@
         <v>0</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" ht="15.6" spans="1:8">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -2560,16 +2572,16 @@
         <v>0</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" ht="15.6" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -2578,14 +2590,14 @@
         <v>0</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H8" s="10"/>
     </row>
     <row r="9" ht="15.6" spans="1:8">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -2594,14 +2606,14 @@
         <v>0.2</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H9" s="10"/>
     </row>
     <row r="10" ht="15.6" spans="1:8">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -2610,14 +2622,14 @@
         <v>0</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H10" s="10"/>
     </row>
     <row r="11" ht="15.6" spans="1:8">
       <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -2626,14 +2638,14 @@
         <v>0</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H11" s="10"/>
     </row>
     <row r="12" ht="15.6" spans="1:8">
       <c r="A12" s="11"/>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2642,16 +2654,16 @@
         <v>0</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H12" s="10"/>
     </row>
     <row r="13" ht="15.6" spans="1:8">
       <c r="A13" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2660,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H13" s="10"/>
     </row>
@@ -2754,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H3" s="10"/>
     </row>
@@ -2772,14 +2784,14 @@
         <v>0.8</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="10"/>
     </row>
     <row r="5" ht="15.6" spans="1:8">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -2788,14 +2800,14 @@
         <v>0</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" ht="15.6" spans="1:8">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -2804,14 +2816,14 @@
         <v>0</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" ht="15.6" spans="1:8">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -2822,16 +2834,16 @@
         <v>0.6</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" ht="15.6" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -2842,14 +2854,14 @@
         <v>0.8</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H8" s="10"/>
     </row>
     <row r="9" ht="15.6" spans="1:8">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -2860,14 +2872,14 @@
         <v>0.6</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H9" s="10"/>
     </row>
     <row r="10" ht="15.6" spans="1:8">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -2878,14 +2890,14 @@
         <v>0.2</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H10" s="10"/>
     </row>
     <row r="11" ht="15.6" spans="1:8">
       <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -2894,14 +2906,14 @@
         <v>0</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H11" s="10"/>
     </row>
     <row r="12" ht="15.6" spans="1:8">
       <c r="A12" s="11"/>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2910,16 +2922,16 @@
         <v>0</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H12" s="10"/>
     </row>
     <row r="13" ht="15.6" spans="1:8">
       <c r="A13" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2928,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H13" s="10"/>
     </row>
@@ -3022,7 +3034,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H3" s="10"/>
     </row>
@@ -3044,14 +3056,14 @@
         <v>0.2</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="10"/>
     </row>
     <row r="5" ht="15.6" spans="1:8">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -3060,14 +3072,14 @@
         <v>0</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" ht="15.6" spans="1:8">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -3076,14 +3088,14 @@
         <v>0</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H6" s="10"/>
     </row>
     <row r="7" ht="15.6" spans="1:8">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -3092,16 +3104,16 @@
         <v>0</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" ht="15.6" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>43641</v>
@@ -3116,14 +3128,14 @@
         <v>1</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H8" s="10"/>
     </row>
     <row r="9" ht="15.6" spans="1:8">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -3132,14 +3144,14 @@
         <v>0</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H9" s="10"/>
     </row>
     <row r="10" ht="15.6" spans="1:8">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -3148,14 +3160,14 @@
         <v>0</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H10" s="10"/>
     </row>
     <row r="11" ht="15.6" spans="1:8">
       <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -3164,14 +3176,14 @@
         <v>0</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H11" s="10"/>
     </row>
     <row r="12" ht="15.6" spans="1:8">
       <c r="A12" s="11"/>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -3180,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H12" s="10"/>
     </row>
     <row r="13" ht="15.6" spans="1:8">
       <c r="A13" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -3198,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H13" s="10"/>
     </row>

--- a/璞盛奇/2.编码进度表—濮盛奇.xlsx
+++ b/璞盛奇/2.编码进度表—濮盛奇.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22103" windowHeight="9947"/>
+    <workbookView windowWidth="20663" windowHeight="9047" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="濮盛奇" sheetId="1" r:id="rId1"/>
@@ -158,6 +158,28 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -166,6 +188,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -173,16 +202,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,14 +275,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -210,48 +283,75 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -261,106 +361,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
@@ -397,7 +397,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,61 +412,199 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,169 +616,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,6 +722,36 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -765,83 +771,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -872,6 +801,59 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -887,17 +869,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -960,199 +936,199 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="44" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1164,10 +1140,10 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="45" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="46" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="41" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="42" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1255,15 +1231,15 @@
     <cellStyle name="汇总" xfId="38" builtinId="25"/>
     <cellStyle name="40% - 着色 5" xfId="39"/>
     <cellStyle name="好" xfId="40" builtinId="26"/>
-    <cellStyle name="着色 5" xfId="41"/>
-    <cellStyle name="适中" xfId="42" builtinId="28"/>
+    <cellStyle name="适中" xfId="41" builtinId="28"/>
+    <cellStyle name="着色 5" xfId="42"/>
     <cellStyle name="标题 1 2" xfId="43"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="44" builtinId="46"/>
     <cellStyle name="强调文字颜色 1" xfId="45" builtinId="29"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="46" builtinId="30"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="输出 2" xfId="48"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="49" builtinId="34"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="48" builtinId="34"/>
+    <cellStyle name="输出 2" xfId="49"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="50" builtinId="35"/>
     <cellStyle name="强调文字颜色 3" xfId="51" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="52" builtinId="41"/>
@@ -1273,8 +1249,8 @@
     <cellStyle name="40% - 强调文字颜色 5" xfId="56" builtinId="47"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
-    <cellStyle name="适中 2" xfId="59"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="60" builtinId="51"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="59" builtinId="51"/>
+    <cellStyle name="适中 2" xfId="60"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
     <cellStyle name="标题 2 2" xfId="62"/>
     <cellStyle name="标题 3 2" xfId="63"/>
@@ -1628,7 +1604,7 @@
   <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -2988,8 +2964,8 @@
   <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -3081,7 +3057,7 @@
         <v>43642</v>
       </c>
       <c r="F4" s="8">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>13</v>
@@ -3169,7 +3145,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>13</v>

--- a/璞盛奇/2.编码进度表—濮盛奇.xlsx
+++ b/璞盛奇/2.编码进度表—濮盛奇.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\hgkj_01\璞盛奇\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BCC99B-3C91-4188-8F05-44528B841088}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1164" yWindow="672" windowWidth="17688" windowHeight="10992" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9492" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="濮盛奇" sheetId="1" r:id="rId1"/>
@@ -108,8 +102,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -146,8 +146,119 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -170,6 +281,43 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="63"/>
@@ -179,28 +327,18 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -210,6 +348,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="54"/>
@@ -252,13 +396,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="16">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,7 +412,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,7 +538,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,19 +598,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39994506668294322"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,7 +646,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,7 +675,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -421,6 +746,72 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="23"/>
       </left>
       <right style="thin">
@@ -431,6 +822,32 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,22 +867,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color indexed="49"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color indexed="49"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="44"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,121 +950,262 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="45" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="46" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="66" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -649,41 +1213,85 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="25">
-    <cellStyle name="20% - 着色 5" xfId="7" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="40% - 着色 4" xfId="10" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="40% - 着色 5" xfId="12" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="60% - 着色 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="标题 1 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="标题 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="标题 3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="标题 4 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="标题 5" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="差 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+  <cellStyles count="73">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="好 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="汇总 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="计算 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="检查单元格 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="解释性文本 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="警告文本 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="链接单元格 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="适中 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="输出 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="输入 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="着色 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="着色 5" xfId="11" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="注释 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="60% - 着色 2" xfId="3"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="4" builtinId="38"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="计算 2" xfId="8"/>
+    <cellStyle name="差" xfId="9" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
+    <cellStyle name="标题 5" xfId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="12" builtinId="40"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8"/>
+    <cellStyle name="汇总 2" xfId="14"/>
+    <cellStyle name="百分比" xfId="15" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9"/>
+    <cellStyle name="注释" xfId="17" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="20" builtinId="11"/>
+    <cellStyle name="标题" xfId="21" builtinId="15"/>
+    <cellStyle name="着色 1" xfId="22"/>
+    <cellStyle name="20% - 着色 5" xfId="23"/>
+    <cellStyle name="解释性文本" xfId="24" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="26" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="27" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="28" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="29" builtinId="44"/>
+    <cellStyle name="输出" xfId="30" builtinId="21"/>
+    <cellStyle name="40% - 着色 4" xfId="31"/>
+    <cellStyle name="计算" xfId="32" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="33" builtinId="23"/>
+    <cellStyle name="好 2" xfId="34"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="35" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="36" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="37" builtinId="24"/>
+    <cellStyle name="汇总" xfId="38" builtinId="25"/>
+    <cellStyle name="40% - 着色 5" xfId="39"/>
+    <cellStyle name="好" xfId="40" builtinId="26"/>
+    <cellStyle name="着色 5" xfId="41"/>
+    <cellStyle name="适中" xfId="42" builtinId="28"/>
+    <cellStyle name="标题 1 2" xfId="43"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="44" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="45" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="46" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="输出 2" xfId="48"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="49" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="50" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="51" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="52" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="53" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="54" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="55" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="56" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
+    <cellStyle name="适中 2" xfId="59"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="60" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
+    <cellStyle name="标题 2 2" xfId="62"/>
+    <cellStyle name="标题 3 2" xfId="63"/>
+    <cellStyle name="标题 4 2" xfId="64"/>
+    <cellStyle name="差 2" xfId="65"/>
+    <cellStyle name="常规 2" xfId="66"/>
+    <cellStyle name="检查单元格 2" xfId="67"/>
+    <cellStyle name="解释性文本 2" xfId="68"/>
+    <cellStyle name="警告文本 2" xfId="69"/>
+    <cellStyle name="链接单元格 2" xfId="70"/>
+    <cellStyle name="输入 2" xfId="71"/>
+    <cellStyle name="注释 2" xfId="72"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1012,292 +1620,292 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="21" style="14" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="14" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="14" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="16.1111111111111" style="12" customWidth="1"/>
+    <col min="2" max="2" width="20.6666666666667" style="12" customWidth="1"/>
+    <col min="3" max="3" width="20.7777777777778" style="13" customWidth="1"/>
+    <col min="4" max="4" width="21" style="13" customWidth="1"/>
+    <col min="5" max="5" width="15.2222222222222" style="13" customWidth="1"/>
+    <col min="6" max="6" width="14.1111111111111" style="13" customWidth="1"/>
+    <col min="7" max="7" width="24.1111111111111" style="13" customWidth="1"/>
+    <col min="8" max="8" width="91.3333333333333" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+    <row r="1" ht="37.5" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+    <row r="2" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>43641</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>43641</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>43641</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>43642</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>43642</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>43642</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <v>0.2</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
+      <c r="G4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>43641</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <v>43641</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>43641</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <v>1</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>43643</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="7">
         <v>43643</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="7">
         <v>43643</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="8">
         <v>0.7</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
+      <c r="G9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="7">
         <v>43646</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="7">
         <v>43646</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <v>43646</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="8">
         <v>1</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="7">
         <v>43646</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="7">
         <v>43646</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="7">
         <v>43646</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="8">
         <v>1</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8" t="s">
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A12" s="11"/>
+      <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="7">
         <v>43648</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="7">
         <v>43648</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="7">
         <v>43648</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="8">
         <v>0.6</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="G12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" ht="21" customHeight="1" spans="1:8">
+      <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1305,272 +1913,272 @@
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A12"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="8" width="36.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="19.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="14.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="15.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="17.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="19.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="16.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="36.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+    <row r="1" ht="32.4" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="15.6" spans="1:8">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>43642</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>43642</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>43642</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="15.6" spans="1:8">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>43648</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
         <v>43647</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <v>0.8</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
+      <c r="G4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="15.6" spans="1:8">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="15.6" spans="1:8">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="15.6" spans="1:8">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" ht="15.6" spans="1:8">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>43647</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <v>43647</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>43647</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <v>1</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="G8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="15.6" spans="1:8">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>43648</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7">
         <v>43647</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="8">
         <v>0.2</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
+      <c r="G9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" ht="15.6" spans="1:8">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" ht="15.6" spans="1:8">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" ht="15.6" spans="1:8">
+      <c r="A12" s="11"/>
+      <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" ht="15.6" spans="1:8">
+      <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1578,267 +2186,274 @@
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A12"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="A1:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="19.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="17.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="17.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="18.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="18.3333333333333" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="43.77734375" customWidth="1"/>
+    <col min="8" max="8" width="43.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+    <row r="1" ht="32.4" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="15.6" spans="1:8">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>43641</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>43642</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>43642</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="15.6" spans="1:8">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8">
         <v>0.5</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
+      <c r="G4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="15.6" spans="1:8">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="15.6" spans="1:8">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="15.6" spans="1:8">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <v>43644</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>43645</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>43645</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <v>0.6</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="G7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" ht="15.6" spans="1:8">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>43643</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <v>43643</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>43643</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <v>1</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="15.6" spans="1:8">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10">
-        <v>0</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
+      <c r="C9" s="7">
+        <v>43648</v>
+      </c>
+      <c r="D9" s="7">
+        <v>43648</v>
+      </c>
+      <c r="E9" s="7">
+        <v>43648</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" ht="15.6" spans="1:8">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" ht="15.6" spans="1:8">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" ht="15.6" spans="1:7">
+      <c r="A12" s="11"/>
+      <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" ht="15.6" spans="1:8">
+      <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1846,249 +2461,250 @@
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A12"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="22.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="18.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="16.6666666666667" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="7" width="18.44140625" customWidth="1"/>
-    <col min="8" max="8" width="41.44140625" customWidth="1"/>
+    <col min="6" max="7" width="18.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="41.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+    <row r="1" ht="32.4" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="15.6" spans="1:8">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+      <c r="G3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="15.6" spans="1:8">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8">
         <v>0.6</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
+      <c r="G4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="15.6" spans="1:8">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="15.6" spans="1:8">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="15.6" spans="1:8">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" ht="15.6" spans="1:8">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="15.6" spans="1:8">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8">
         <v>0.2</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
+      <c r="G9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" ht="15.6" spans="1:8">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" ht="15.6" spans="1:8">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" ht="15.6" spans="1:8">
+      <c r="A12" s="11"/>
+      <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" ht="15.6" spans="1:8">
+      <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2096,272 +2712,273 @@
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A12"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" customWidth="1"/>
-    <col min="8" max="8" width="51.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="16.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="17.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="16.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="17.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="18.2222222222222" customWidth="1"/>
+    <col min="8" max="8" width="51.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+    <row r="1" ht="32.4" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="15.6" spans="1:8">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>43641</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>43642</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>43642</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+      <c r="G3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="15.6" spans="1:8">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
         <v>43647</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <v>1</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
+      <c r="G4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="15.6" spans="1:8">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7">
         <v>43648</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <v>0.2</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="G5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="15.6" spans="1:8">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7">
         <v>43647</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <v>0.4</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
+      <c r="G6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="15.6" spans="1:8">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7">
         <v>43647</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <v>0.6</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="G7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" ht="15.6" spans="1:8">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7">
         <v>43647</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <v>1</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="G8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="15.6" spans="1:8">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7">
         <v>43647</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="8">
         <v>1</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
+      <c r="G9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" ht="15.6" spans="1:8">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7">
         <v>43648</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="8">
         <v>0.4</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+      <c r="G10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" ht="15.6" spans="1:8">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7">
         <v>43647</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="8">
         <v>0.4</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8" t="s">
+      <c r="G11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" ht="15.6" spans="1:8">
+      <c r="A12" s="11"/>
+      <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" ht="15.6" spans="1:8">
+      <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2369,268 +2986,269 @@
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A12"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="16.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="21.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="19.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="23.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="16.8888888888889" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" customWidth="1"/>
-    <col min="8" max="8" width="55.44140625" customWidth="1"/>
+    <col min="7" max="7" width="23.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="55.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+    <row r="1" ht="32.4" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="15.6" spans="1:8">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>43641</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>43641</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>43641</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+      <c r="G3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="15.6" spans="1:8">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>43642</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>43642</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>43642</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <v>1</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
+      <c r="G4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="15.6" spans="1:8">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="15.6" spans="1:8">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="15.6" spans="1:8">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" ht="15.6" spans="1:8">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>43641</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <v>43641</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>43641</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <v>1</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="G8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="15.6" spans="1:8">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8">
         <v>0.7</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
+      <c r="G9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" ht="15.6" spans="1:8">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" ht="15.6" spans="1:8">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" ht="15.6" spans="1:8">
+      <c r="A12" s="11"/>
+      <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" ht="15.6" spans="1:8">
+      <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2638,7 +3256,7 @@
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A12"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/璞盛奇/2.编码进度表—濮盛奇.xlsx
+++ b/璞盛奇/2.编码进度表—濮盛奇.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8087\Desktop\hgkj_01\璞盛奇\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD12BBB1-D268-4A10-A9BB-9CBA35B55446}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1740" windowWidth="18405" windowHeight="7875" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22103" windowHeight="9947"/>
   </bookViews>
   <sheets>
     <sheet name="濮盛奇" sheetId="1" r:id="rId1"/>
@@ -108,8 +102,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -146,6 +146,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -153,8 +160,185 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -166,53 +350,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="54"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -252,13 +396,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="16">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,7 +412,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39994506668294322"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,48 +454,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -350,7 +675,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -420,11 +745,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="44"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -446,6 +821,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="49"/>
       </top>
@@ -456,16 +864,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="63"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color indexed="63"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color indexed="63"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color indexed="63"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,8 +890,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thick">
         <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,121 +950,262 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="45" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="46" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="66" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -649,41 +1213,85 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="25">
-    <cellStyle name="20% - 着色 5" xfId="7" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="40% - 着色 4" xfId="10" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="40% - 着色 5" xfId="12" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="60% - 着色 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="标题 1 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="标题 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="标题 3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="标题 4 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="标题 5" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="差 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+  <cellStyles count="73">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="好 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="汇总 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="计算 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="检查单元格 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="解释性文本 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="警告文本 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="链接单元格 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="适中 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="输出 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="输入 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="着色 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="着色 5" xfId="11" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="注释 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="60% - 着色 2" xfId="3"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="4" builtinId="38"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="计算 2" xfId="8"/>
+    <cellStyle name="差" xfId="9" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
+    <cellStyle name="标题 5" xfId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="12" builtinId="40"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8"/>
+    <cellStyle name="汇总 2" xfId="14"/>
+    <cellStyle name="百分比" xfId="15" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9"/>
+    <cellStyle name="注释" xfId="17" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="20" builtinId="11"/>
+    <cellStyle name="标题" xfId="21" builtinId="15"/>
+    <cellStyle name="着色 1" xfId="22"/>
+    <cellStyle name="20% - 着色 5" xfId="23"/>
+    <cellStyle name="解释性文本" xfId="24" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="26" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="27" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="28" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="29" builtinId="44"/>
+    <cellStyle name="输出" xfId="30" builtinId="21"/>
+    <cellStyle name="40% - 着色 4" xfId="31"/>
+    <cellStyle name="计算" xfId="32" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="33" builtinId="23"/>
+    <cellStyle name="好 2" xfId="34"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="35" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="36" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="37" builtinId="24"/>
+    <cellStyle name="汇总" xfId="38" builtinId="25"/>
+    <cellStyle name="40% - 着色 5" xfId="39"/>
+    <cellStyle name="好" xfId="40" builtinId="26"/>
+    <cellStyle name="着色 5" xfId="41"/>
+    <cellStyle name="适中" xfId="42" builtinId="28"/>
+    <cellStyle name="标题 1 2" xfId="43"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="44" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="45" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="46" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="输出 2" xfId="48"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="49" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="50" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="51" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="52" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="53" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="54" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="55" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="56" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
+    <cellStyle name="适中 2" xfId="59"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="60" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
+    <cellStyle name="标题 2 2" xfId="62"/>
+    <cellStyle name="标题 3 2" xfId="63"/>
+    <cellStyle name="标题 4 2" xfId="64"/>
+    <cellStyle name="差 2" xfId="65"/>
+    <cellStyle name="常规 2" xfId="66"/>
+    <cellStyle name="检查单元格 2" xfId="67"/>
+    <cellStyle name="解释性文本 2" xfId="68"/>
+    <cellStyle name="警告文本 2" xfId="69"/>
+    <cellStyle name="链接单元格 2" xfId="70"/>
+    <cellStyle name="输入 2" xfId="71"/>
+    <cellStyle name="注释 2" xfId="72"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1012,292 +1620,294 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="20.75" style="14" customWidth="1"/>
-    <col min="4" max="4" width="21" style="14" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="14" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="91.375" style="14" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="16.1296296296296" style="12" customWidth="1"/>
+    <col min="2" max="2" width="20.6296296296296" style="12" customWidth="1"/>
+    <col min="3" max="3" width="20.75" style="13" customWidth="1"/>
+    <col min="4" max="4" width="21" style="13" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="13" customWidth="1"/>
+    <col min="6" max="6" width="14.1296296296296" style="13" customWidth="1"/>
+    <col min="7" max="7" width="24.1296296296296" style="13" customWidth="1"/>
+    <col min="8" max="8" width="91.3796296296296" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+    <row r="1" ht="37.5" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>43641</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>43641</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>43641</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>43642</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>43642</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>43642</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <v>0.2</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
+      <c r="G4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7">
+        <v>43649</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>43641</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <v>43641</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>43641</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <v>1</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>43643</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="7">
         <v>43643</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="7">
         <v>43643</v>
       </c>
-      <c r="F9" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
+      <c r="F9" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="7">
         <v>43646</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="7">
         <v>43646</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <v>43646</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="8">
         <v>1</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="7">
         <v>43646</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="7">
         <v>43646</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="7">
         <v>43646</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="8">
         <v>1</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8" t="s">
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A12" s="11"/>
+      <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="7">
         <v>43648</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="7">
         <v>43648</v>
       </c>
-      <c r="E12" s="9">
-        <v>43648</v>
-      </c>
-      <c r="F12" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="E12" s="7">
+        <v>43649</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" ht="21" customHeight="1" spans="1:8">
+      <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1305,272 +1915,272 @@
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A12"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="15.3796296296296" customWidth="1"/>
+    <col min="5" max="5" width="17.6296296296296" customWidth="1"/>
     <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="16.6296296296296" customWidth="1"/>
     <col min="8" max="8" width="36.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+    <row r="1" ht="32.4" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="15.6" spans="1:8">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>43642</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>43642</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>43642</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="15.6" spans="1:8">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>43648</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
         <v>43647</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <v>0.8</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
+      <c r="G4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="15.6" spans="1:8">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="15.6" spans="1:8">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="15.6" spans="1:8">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" ht="15.6" spans="1:8">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>43647</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <v>43647</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>43647</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <v>1</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="G8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="15.6" spans="1:8">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>43648</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7">
         <v>43647</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="8">
         <v>0.2</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
+      <c r="G9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" ht="15.6" spans="1:8">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" ht="15.6" spans="1:8">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" ht="15.6" spans="1:8">
+      <c r="A12" s="11"/>
+      <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" ht="15.6" spans="1:8">
+      <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1578,273 +2188,274 @@
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A12"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="A1:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="19.3796296296296" customWidth="1"/>
     <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="17.8796296296296" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="18.3796296296296" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="43.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+    <row r="1" ht="32.4" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="15.6" spans="1:8">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>43641</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>43642</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>43642</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="15.6" spans="1:8">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8">
         <v>0.5</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
+      <c r="G4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="15.6" spans="1:8">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="15.6" spans="1:8">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="15.6" spans="1:8">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <v>43644</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>43645</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>43645</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <v>0.6</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="G7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" ht="15.6" spans="1:8">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>43643</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <v>43643</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>43643</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <v>1</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="15.6" spans="1:8">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>43648</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="7">
         <v>43648</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="7">
         <v>43648</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="8">
         <v>0.5</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
+      <c r="G9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" ht="15.6" spans="1:8">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" ht="15.6" spans="1:8">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" ht="15.6" spans="1:7">
+      <c r="A12" s="11"/>
+      <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" ht="15.6" spans="1:8">
+      <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1852,249 +2463,250 @@
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A12"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="22.6296296296296" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="16.6296296296296" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="7" width="18.5" customWidth="1"/>
     <col min="8" max="8" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+    <row r="1" ht="32.4" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="15.6" spans="1:8">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+      <c r="G3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="15.6" spans="1:8">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8">
         <v>1</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
+      <c r="G4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="15.6" spans="1:8">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="15.6" spans="1:8">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8">
         <v>0.4</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
+      <c r="G6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="15.6" spans="1:8">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8">
         <v>0.6</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="G7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" ht="15.6" spans="1:8">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="15.6" spans="1:8">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8">
         <v>0.8</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
+      <c r="G9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" ht="15.6" spans="1:8">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" ht="15.6" spans="1:8">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8">
         <v>0.4</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8" t="s">
+      <c r="G11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" ht="15.6" spans="1:8">
+      <c r="A12" s="11"/>
+      <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" ht="15.6" spans="1:8">
+      <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2102,272 +2714,273 @@
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A12"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="17.75" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="16.8796296296296" customWidth="1"/>
     <col min="6" max="6" width="17.75" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
-    <col min="8" max="8" width="51.375" customWidth="1"/>
+    <col min="8" max="8" width="51.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+    <row r="1" ht="32.4" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="15.6" spans="1:8">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>43641</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>43642</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>43642</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+      <c r="G3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="15.6" spans="1:8">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
         <v>43647</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <v>1</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
+      <c r="G4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="15.6" spans="1:8">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7">
         <v>43648</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <v>0.2</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="G5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="15.6" spans="1:8">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7">
         <v>43647</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <v>0.4</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
+      <c r="G6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="15.6" spans="1:8">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7">
         <v>43647</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <v>0.6</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="G7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" ht="15.6" spans="1:8">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7">
         <v>43647</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <v>1</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="G8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="15.6" spans="1:8">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7">
         <v>43647</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="8">
         <v>1</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
+      <c r="G9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" ht="15.6" spans="1:8">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7">
         <v>43648</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="8">
         <v>0.4</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+      <c r="G10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" ht="15.6" spans="1:8">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7">
         <v>43647</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="8">
         <v>0.4</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8" t="s">
+      <c r="G11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" ht="15.6" spans="1:8">
+      <c r="A12" s="11"/>
+      <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" ht="15.6" spans="1:8">
+      <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2375,268 +2988,269 @@
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A12"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
-    <col min="4" max="4" width="23.125" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="16.3796296296296" customWidth="1"/>
+    <col min="2" max="2" width="21.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="19.8796296296296" customWidth="1"/>
+    <col min="4" max="4" width="23.1296296296296" customWidth="1"/>
+    <col min="5" max="5" width="16.8796296296296" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="23.5" customWidth="1"/>
     <col min="8" max="8" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+    <row r="1" ht="32.4" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="15.6" spans="1:8">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>43641</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>43641</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>43641</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+      <c r="G3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="15.6" spans="1:8">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>43642</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>43642</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>43642</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <v>1</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
+      <c r="G4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="15.6" spans="1:8">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="15.6" spans="1:8">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="15.6" spans="1:8">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" ht="15.6" spans="1:8">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>43641</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <v>43641</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>43641</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <v>1</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="G8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="15.6" spans="1:8">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8">
         <v>0.7</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
+      <c r="G9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" ht="15.6" spans="1:8">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" ht="15.6" spans="1:8">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" ht="15.6" spans="1:8">
+      <c r="A12" s="11"/>
+      <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" ht="15.6" spans="1:8">
+      <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2644,7 +3258,7 @@
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A12"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/璞盛奇/2.编码进度表—濮盛奇.xlsx
+++ b/璞盛奇/2.编码进度表—濮盛奇.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\hgkj_01\璞盛奇\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6838DBF9-5495-4FF3-B4AE-324D99C91192}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E713C7A-53AD-4C0F-89B1-5B23817254F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1188" yWindow="456" windowWidth="17688" windowHeight="10992" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -606,47 +606,47 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -1026,280 +1026,280 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="21" style="14" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="14" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="14" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="16.109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="21" style="9" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="91.33203125" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="3"/>
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="4">
         <v>43641</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="4">
         <v>43641</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="4">
         <v>43641</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="12"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="4">
         <v>43642</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="4">
         <v>43642</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="4">
         <v>43642</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="5">
         <v>0.2</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="12"/>
+      <c r="G4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4">
         <v>43649</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="5">
         <v>0.3</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="12"/>
+      <c r="G5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="12"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="12"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="4">
         <v>43641</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="4">
         <v>43641</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="4">
         <v>43641</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="5">
         <v>1</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="12"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="4">
         <v>43643</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="4">
         <v>43643</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="4">
         <v>43643</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="5">
         <v>0.9</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="12"/>
+      <c r="G9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="4">
         <v>43646</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="4">
         <v>43646</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="4">
         <v>43646</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="5">
         <v>1</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="12"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="4">
         <v>43646</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="4">
         <v>43646</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="4">
         <v>43646</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="5">
         <v>1</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="4">
         <v>43648</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="4">
         <v>43648</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="4">
         <v>43649</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="5">
         <v>0.9</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="12"/>
+      <c r="G12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1335,244 +1335,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="3"/>
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="4">
         <v>43642</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="4">
         <v>43642</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="4">
         <v>43642</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="12"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="4">
         <v>43648</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
         <v>43647</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="5">
         <v>0.8</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="12"/>
+      <c r="G4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="12"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="12"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="12"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="4">
         <v>43647</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="4">
         <v>43647</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="4">
         <v>43647</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="5">
         <v>1</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="12"/>
+      <c r="G8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="4">
         <v>43648</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4">
         <v>43647</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="5">
         <v>0.2</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="12"/>
+      <c r="G9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="12"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="12"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="12"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1606,247 +1606,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="3"/>
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="4">
         <v>43641</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="4">
         <v>43642</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="4">
         <v>43642</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="12"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5">
         <v>0.5</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="12"/>
+      <c r="G4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="12"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="12"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="4">
         <v>43644</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="4">
         <v>43645</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="4">
         <v>43645</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="5">
         <v>0.6</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="12"/>
+      <c r="G7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="4">
         <v>43643</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="4">
         <v>43643</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="4">
         <v>43643</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="5">
         <v>1</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="12"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="4">
         <v>43648</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="4">
         <v>43648</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="4">
         <v>43648</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="5">
         <v>0.5</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="12"/>
+      <c r="G9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="12"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="12"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1879,224 +1879,224 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="3"/>
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="12"/>
+      <c r="G3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5">
         <v>1</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="12"/>
+      <c r="G4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="12"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5">
         <v>0.4</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="12"/>
+      <c r="G6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5">
         <v>0.6</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="12"/>
+      <c r="G7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="12"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5">
         <v>0.8</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="12"/>
+      <c r="G9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="12"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5">
         <v>0.4</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="12"/>
+      <c r="G11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="12"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2114,7 +2114,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2130,246 +2130,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="3"/>
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="4">
         <v>43641</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="4">
         <v>43642</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="4">
         <v>43642</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="12"/>
+      <c r="G3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
         <v>43647</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="5">
         <v>1</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="12"/>
+      <c r="G4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4">
         <v>43649</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="5">
         <v>0.4</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="12"/>
+      <c r="G5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
         <v>43647</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="5">
         <v>0.4</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="12"/>
+      <c r="G6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
         <v>43649</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="5">
         <v>0.6</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="12"/>
+      <c r="G7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4">
         <v>43647</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="5">
         <v>1</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="12"/>
+      <c r="G8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4">
         <v>43647</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="5">
         <v>1</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="12"/>
+      <c r="G9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4">
         <v>43649</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="5">
         <v>0.4</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="12"/>
+      <c r="G10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4">
         <v>43649</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="5">
         <v>0.4</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="12"/>
+      <c r="G11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="12"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4">
+        <v>43649</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2403,242 +2405,242 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="3"/>
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="4">
         <v>43641</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="4">
         <v>43641</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="4">
         <v>43641</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="12"/>
+      <c r="G3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="4">
         <v>43642</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="4">
         <v>43642</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="4">
         <v>43642</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="5">
         <v>1</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="12"/>
+      <c r="G4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="12"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="12"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="12"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="4">
         <v>43641</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="4">
         <v>43641</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="4">
         <v>43641</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="5">
         <v>1</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="12"/>
+      <c r="G8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5">
         <v>0.7</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="12"/>
+      <c r="G9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="12"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="12"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="12"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/璞盛奇/2.编码进度表—濮盛奇.xlsx
+++ b/璞盛奇/2.编码进度表—濮盛奇.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\hgkj_01\璞盛奇\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E713C7A-53AD-4C0F-89B1-5B23817254F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE69C702-3B62-42AB-AE3C-CBBED1FB67EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1188" yWindow="456" windowWidth="17688" windowHeight="10992" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2114,7 +2114,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2309,10 +2309,10 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4">
-        <v>43649</v>
+        <v>43650</v>
       </c>
       <c r="F10" s="5">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>13</v>
@@ -2345,10 +2345,10 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4">
-        <v>43649</v>
+        <v>43650</v>
       </c>
       <c r="F12" s="5">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>13</v>

--- a/璞盛奇/2.编码进度表—濮盛奇.xlsx
+++ b/璞盛奇/2.编码进度表—濮盛奇.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\hgkj_01\璞盛奇\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE69C702-3B62-42AB-AE3C-CBBED1FB67EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1188" yWindow="456" windowWidth="17688" windowHeight="10992" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22103" windowHeight="9947"/>
   </bookViews>
   <sheets>
     <sheet name="濮盛奇" sheetId="1" r:id="rId1"/>
@@ -108,8 +102,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -143,10 +143,57 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,6 +211,92 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="54"/>
@@ -171,25 +304,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="54"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color indexed="54"/>
@@ -198,8 +312,37 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color indexed="54"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -211,8 +354,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="60"/>
+      <b/>
+      <sz val="13"/>
+      <color indexed="54"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -252,13 +396,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="16">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,19 +412,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,19 +448,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39994506668294322"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,6 +550,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -350,7 +675,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -420,6 +745,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="23"/>
       </left>
@@ -435,11 +793,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,8 +848,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,7 +858,31 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color indexed="44"/>
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,6 +898,15 @@
       </top>
       <bottom style="thin">
         <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,86 +950,239 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="45" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="46" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="66" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -627,63 +1203,95 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="25">
-    <cellStyle name="20% - 着色 5" xfId="7" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="40% - 着色 4" xfId="10" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="40% - 着色 5" xfId="12" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="60% - 着色 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="标题 1 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="标题 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="标题 3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="标题 4 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="标题 5" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="差 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+  <cellStyles count="73">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="好 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="汇总 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="计算 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="检查单元格 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="解释性文本 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="警告文本 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="链接单元格 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="适中 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="输出 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="输入 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="着色 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="着色 5" xfId="11" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="注释 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="60% - 着色 2" xfId="3"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="4" builtinId="38"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="计算 2" xfId="8"/>
+    <cellStyle name="差" xfId="9" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
+    <cellStyle name="标题 5" xfId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="12" builtinId="40"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8"/>
+    <cellStyle name="汇总 2" xfId="14"/>
+    <cellStyle name="百分比" xfId="15" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9"/>
+    <cellStyle name="注释" xfId="17" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="20" builtinId="11"/>
+    <cellStyle name="标题" xfId="21" builtinId="15"/>
+    <cellStyle name="着色 1" xfId="22"/>
+    <cellStyle name="20% - 着色 5" xfId="23"/>
+    <cellStyle name="解释性文本" xfId="24" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="26" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="27" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="28" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="29" builtinId="44"/>
+    <cellStyle name="输出" xfId="30" builtinId="21"/>
+    <cellStyle name="40% - 着色 4" xfId="31"/>
+    <cellStyle name="计算" xfId="32" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="33" builtinId="23"/>
+    <cellStyle name="好 2" xfId="34"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="35" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="36" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="37" builtinId="24"/>
+    <cellStyle name="汇总" xfId="38" builtinId="25"/>
+    <cellStyle name="40% - 着色 5" xfId="39"/>
+    <cellStyle name="好" xfId="40" builtinId="26"/>
+    <cellStyle name="着色 5" xfId="41"/>
+    <cellStyle name="适中" xfId="42" builtinId="28"/>
+    <cellStyle name="标题 1 2" xfId="43"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="44" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="45" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="46" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="输出 2" xfId="48"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="49" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="50" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="51" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="52" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="53" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="54" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="55" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="56" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="57" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="58" builtinId="49"/>
+    <cellStyle name="适中 2" xfId="59"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="60" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
+    <cellStyle name="标题 2 2" xfId="62"/>
+    <cellStyle name="标题 3 2" xfId="63"/>
+    <cellStyle name="标题 4 2" xfId="64"/>
+    <cellStyle name="差 2" xfId="65"/>
+    <cellStyle name="常规 2" xfId="66"/>
+    <cellStyle name="检查单元格 2" xfId="67"/>
+    <cellStyle name="解释性文本 2" xfId="68"/>
+    <cellStyle name="警告文本 2" xfId="69"/>
+    <cellStyle name="链接单元格 2" xfId="70"/>
+    <cellStyle name="输入 2" xfId="71"/>
+    <cellStyle name="注释 2" xfId="72"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1012,294 +1620,300 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="21" style="9" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="91.33203125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="16.1111111111111" style="12" customWidth="1"/>
+    <col min="2" max="2" width="20.6666666666667" style="12" customWidth="1"/>
+    <col min="3" max="3" width="20.7777777777778" style="13" customWidth="1"/>
+    <col min="4" max="4" width="21" style="13" customWidth="1"/>
+    <col min="5" max="5" width="15.2222222222222" style="13" customWidth="1"/>
+    <col min="6" max="6" width="14.1111111111111" style="13" customWidth="1"/>
+    <col min="7" max="7" width="24.1111111111111" style="13" customWidth="1"/>
+    <col min="8" max="8" width="91.3333333333333" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="1" ht="37.5" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+    <row r="3" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="7">
         <v>43641</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="7">
         <v>43641</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="7">
         <v>43641</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
-      <c r="B4" s="3" t="s">
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="7">
         <v>43642</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="7">
         <v>43642</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="7">
         <v>43642</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="8">
         <v>0.2</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
-      <c r="B5" s="3" t="s">
+      <c r="G4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7">
         <v>43649</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="8">
         <v>0.3</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
-      <c r="B6" s="3" t="s">
+      <c r="G5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
-      <c r="B7" s="3" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="7">
         <v>43641</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="7">
         <v>43641</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="7">
         <v>43641</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="8">
         <v>1</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
-      <c r="B9" s="3" t="s">
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="4">
-        <v>43643</v>
-      </c>
-      <c r="D9" s="4">
-        <v>43643</v>
-      </c>
-      <c r="E9" s="4">
-        <v>43643</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
-      <c r="B10" s="3" t="s">
+      <c r="C9" s="7">
+        <v>43650</v>
+      </c>
+      <c r="D9" s="7">
+        <v>43650</v>
+      </c>
+      <c r="E9" s="7">
+        <v>43650</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="7">
         <v>43646</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="7">
         <v>43646</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="7">
         <v>43646</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="8">
         <v>1</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
-      <c r="B11" s="3" t="s">
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="7">
         <v>43646</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="7">
         <v>43646</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="7">
         <v>43646</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="8">
         <v>1</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
-      <c r="B12" s="3" t="s">
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A12" s="11"/>
+      <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="7">
         <v>43648</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="7">
         <v>43648</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="7">
         <v>43649</v>
       </c>
-      <c r="F12" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="F12" s="8">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" ht="21" customHeight="1" spans="1:8">
+      <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7"/>
+      <c r="C13" s="7">
+        <v>43650</v>
+      </c>
+      <c r="D13" s="7">
+        <v>43650</v>
+      </c>
+      <c r="E13" s="7">
+        <v>43650</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1307,272 +1921,272 @@
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A12"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="8" width="36.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="19.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="14.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="15.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="17.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="19.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="16.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="36.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" ht="32.4" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+    <row r="3" ht="15.6" spans="1:8">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="7">
         <v>43642</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="7">
         <v>43642</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="7">
         <v>43642</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
-      <c r="B4" s="3" t="s">
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="15.6" spans="1:8">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="7">
         <v>43648</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
         <v>43647</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="8">
         <v>0.8</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
-      <c r="B5" s="3" t="s">
+      <c r="G4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="15.6" spans="1:8">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
-      <c r="B6" s="3" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="15.6" spans="1:8">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
-      <c r="B7" s="3" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="15.6" spans="1:8">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" ht="15.6" spans="1:8">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="7">
         <v>43647</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="7">
         <v>43647</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="7">
         <v>43647</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="8">
         <v>1</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
-      <c r="B9" s="3" t="s">
+      <c r="G8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="15.6" spans="1:8">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="7">
         <v>43648</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7">
         <v>43647</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="8">
         <v>0.2</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
-      <c r="B10" s="3" t="s">
+      <c r="G9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" ht="15.6" spans="1:8">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
-      <c r="B11" s="3" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" ht="15.6" spans="1:8">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
-      <c r="B12" s="3" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" ht="15.6" spans="1:8">
+      <c r="A12" s="11"/>
+      <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" ht="15.6" spans="1:8">
+      <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1580,273 +2194,274 @@
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A12"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="A1:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="19.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="17.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="17.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="18.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="18.3333333333333" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="43.77734375" customWidth="1"/>
+    <col min="8" max="8" width="43.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" ht="32.4" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+    <row r="3" ht="15.6" spans="1:8">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="7">
         <v>43641</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="7">
         <v>43642</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="7">
         <v>43642</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
-      <c r="B4" s="3" t="s">
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="15.6" spans="1:8">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8">
         <v>0.5</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
-      <c r="B5" s="3" t="s">
+      <c r="G4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="15.6" spans="1:8">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
-      <c r="B6" s="3" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="15.6" spans="1:8">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
-      <c r="B7" s="3" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="15.6" spans="1:8">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="7">
         <v>43644</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="7">
         <v>43645</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="7">
         <v>43645</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="8">
         <v>0.6</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="G7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" ht="15.6" spans="1:8">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="7">
         <v>43643</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="7">
         <v>43643</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="7">
         <v>43643</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="8">
         <v>1</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
-      <c r="B9" s="3" t="s">
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="15.6" spans="1:8">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="7">
         <v>43648</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="7">
         <v>43648</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="7">
         <v>43648</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="8">
         <v>0.5</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
-      <c r="B10" s="3" t="s">
+      <c r="G9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" ht="15.6" spans="1:8">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
-      <c r="B11" s="3" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" ht="15.6" spans="1:8">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
-      <c r="B12" s="3" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" ht="15.6" spans="1:7">
+      <c r="A12" s="11"/>
+      <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" ht="15.6" spans="1:8">
+      <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1854,249 +2469,250 @@
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A12"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="22.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="18.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="16.6666666666667" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="7" width="18.44140625" customWidth="1"/>
-    <col min="8" max="8" width="41.44140625" customWidth="1"/>
+    <col min="6" max="7" width="18.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="41.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" ht="32.4" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+    <row r="3" ht="15.6" spans="1:8">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
-      <c r="B4" s="3" t="s">
+      <c r="G3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="15.6" spans="1:8">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8">
         <v>1</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
-      <c r="B5" s="3" t="s">
+      <c r="G4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="15.6" spans="1:8">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
-      <c r="B6" s="3" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="15.6" spans="1:8">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8">
         <v>0.4</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
-      <c r="B7" s="3" t="s">
+      <c r="G6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="15.6" spans="1:8">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8">
         <v>0.6</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="G7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" ht="15.6" spans="1:8">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
-      <c r="B9" s="3" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="15.6" spans="1:8">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8">
         <v>0.8</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
-      <c r="B10" s="3" t="s">
+      <c r="G9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" ht="15.6" spans="1:8">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
-      <c r="B11" s="3" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" ht="15.6" spans="1:8">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8">
         <v>0.4</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
-      <c r="B12" s="3" t="s">
+      <c r="G11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" ht="15.6" spans="1:8">
+      <c r="A12" s="11"/>
+      <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" ht="15.6" spans="1:8">
+      <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2104,274 +2720,275 @@
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A12"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" customWidth="1"/>
-    <col min="8" max="8" width="51.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="16.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="17.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="16.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="17.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="18.2222222222222" customWidth="1"/>
+    <col min="8" max="8" width="51.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" ht="32.4" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+    <row r="3" ht="15.6" spans="1:8">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="7">
         <v>43641</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="7">
         <v>43642</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="7">
         <v>43642</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
-      <c r="B4" s="3" t="s">
+      <c r="G3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="15.6" spans="1:8">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
         <v>43647</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="8">
         <v>1</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
-      <c r="B5" s="3" t="s">
+      <c r="G4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="15.6" spans="1:8">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7">
         <v>43649</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="8">
         <v>0.4</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
-      <c r="B6" s="3" t="s">
+      <c r="G5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="15.6" spans="1:8">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7">
         <v>43647</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="8">
         <v>0.4</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
-      <c r="B7" s="3" t="s">
+      <c r="G6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="15.6" spans="1:8">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7">
         <v>43649</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="8">
         <v>0.6</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="G7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" ht="15.6" spans="1:8">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7">
         <v>43647</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="8">
         <v>1</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
-      <c r="B9" s="3" t="s">
+      <c r="G8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="15.6" spans="1:8">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7">
         <v>43647</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="8">
         <v>1</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
-      <c r="B10" s="3" t="s">
+      <c r="G9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" ht="15.6" spans="1:8">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7">
         <v>43650</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="8">
         <v>0.6</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
-      <c r="B11" s="3" t="s">
+      <c r="G10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" ht="15.6" spans="1:8">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7">
         <v>43649</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="8">
         <v>0.4</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
-      <c r="B12" s="3" t="s">
+      <c r="G11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" ht="15.6" spans="1:8">
+      <c r="A12" s="11"/>
+      <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7">
         <v>43650</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="8">
         <v>0.6</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="G12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" ht="15.6" spans="1:8">
+      <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2379,268 +2996,269 @@
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A12"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="16.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="21.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="19.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="23.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="16.8888888888889" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" customWidth="1"/>
-    <col min="8" max="8" width="55.44140625" customWidth="1"/>
+    <col min="7" max="7" width="23.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="55.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" ht="32.4" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+    <row r="3" ht="15.6" spans="1:8">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="7">
         <v>43641</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="7">
         <v>43641</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="7">
         <v>43641</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
-      <c r="B4" s="3" t="s">
+      <c r="G3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="15.6" spans="1:8">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="7">
         <v>43642</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="7">
         <v>43642</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="7">
         <v>43642</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="8">
         <v>1</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
-      <c r="B5" s="3" t="s">
+      <c r="G4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="15.6" spans="1:8">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
-      <c r="B6" s="3" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="15.6" spans="1:8">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
-      <c r="B7" s="3" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="15.6" spans="1:8">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" ht="15.6" spans="1:8">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="7">
         <v>43641</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="7">
         <v>43641</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="7">
         <v>43641</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="8">
         <v>1</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
-      <c r="B9" s="3" t="s">
+      <c r="G8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="15.6" spans="1:8">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8">
         <v>0.7</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
-      <c r="B10" s="3" t="s">
+      <c r="G9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" ht="15.6" spans="1:8">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
-      <c r="B11" s="3" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" ht="15.6" spans="1:8">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
-      <c r="B12" s="3" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" ht="15.6" spans="1:8">
+      <c r="A12" s="11"/>
+      <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" ht="15.6" spans="1:8">
+      <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2648,7 +3266,7 @@
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A12"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>